--- a/database_new.xlsx
+++ b/database_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thunghiem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,14 +397,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="M3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,12 +1652,12 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="R16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1676,24 +1675,24 @@
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="R17" s="6">
         <v>1</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9" t="s">
+      <c r="U17" s="8"/>
+      <c r="V17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="8"/>
       <c r="AD17" s="6" t="s">
         <v>62</v>
       </c>
@@ -1705,24 +1704,24 @@
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="R18" s="6">
         <v>2</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9" t="s">
+      <c r="U18" s="8"/>
+      <c r="V18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="8"/>
       <c r="AD18" s="6">
         <v>1</v>
       </c>
@@ -1738,14 +1737,14 @@
         <v>3</v>
       </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9" t="s">
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="8"/>
       <c r="AD19" s="6">
         <v>1</v>
       </c>
@@ -1788,10 +1787,10 @@
       <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="9"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -1810,11 +1809,11 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1845,11 +1844,11 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1880,11 +1879,11 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="6" t="s">
         <v>49</v>
       </c>
@@ -1901,11 +1900,11 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="6" t="s">
         <v>51</v>
       </c>
@@ -2140,80 +2139,40 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
@@ -2233,40 +2192,80 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD21:AE21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database_new.xlsx
+++ b/database_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thunghiem1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\thunghiem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -397,14 +397,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="M9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,12 +1652,12 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="R16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1675,24 +1675,24 @@
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="R17" s="6">
         <v>1</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8" t="s">
+      <c r="U17" s="9"/>
+      <c r="V17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="8"/>
+      <c r="W17" s="9"/>
       <c r="AD17" s="6" t="s">
         <v>62</v>
       </c>
@@ -1704,24 +1704,24 @@
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="R18" s="6">
         <v>2</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8" t="s">
+      <c r="U18" s="9"/>
+      <c r="V18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W18" s="8"/>
+      <c r="W18" s="9"/>
       <c r="AD18" s="6">
         <v>1</v>
       </c>
@@ -1737,14 +1737,14 @@
         <v>3</v>
       </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8" t="s">
+      <c r="U19" s="9"/>
+      <c r="V19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="9"/>
       <c r="AD19" s="6">
         <v>1</v>
       </c>
@@ -1787,10 +1787,10 @@
       <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="7"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -1809,11 +1809,11 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1844,11 +1844,11 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1879,11 +1879,11 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="6" t="s">
         <v>49</v>
       </c>
@@ -1900,11 +1900,11 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="6" t="s">
         <v>51</v>
       </c>
@@ -2139,85 +2139,33 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="P6:Q6"/>
@@ -2239,33 +2187,85 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database_new.xlsx
+++ b/database_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\thunghiem1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thunghiem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Page</t>
   </si>
@@ -327,6 +328,30 @@
   </si>
   <si>
     <t>id_function_attribute</t>
+  </si>
+  <si>
+    <t>có 3 cái text</t>
+  </si>
+  <si>
+    <t>component_attr</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>id_attr</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>text?</t>
+  </si>
+  <si>
+    <t>function_call?</t>
+  </si>
+  <si>
+    <t>component_static_text</t>
   </si>
 </sst>
 </file>
@@ -398,13 +423,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,12 +1677,12 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="R16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1670,29 +1695,35 @@
         <v>13</v>
       </c>
       <c r="W16" s="6"/>
+      <c r="X16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>70</v>
+      </c>
       <c r="AE16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
       <c r="R17" s="6">
         <v>1</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="9" t="s">
+      <c r="T17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9" t="s">
+      <c r="U17" s="7"/>
+      <c r="V17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="7"/>
       <c r="AD17" s="6" t="s">
         <v>62</v>
       </c>
@@ -1704,24 +1735,24 @@
       <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="R18" s="6">
         <v>2</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="9" t="s">
+      <c r="T18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9" t="s">
+      <c r="U18" s="7"/>
+      <c r="V18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="7"/>
       <c r="AD18" s="6">
         <v>1</v>
       </c>
@@ -1737,14 +1768,14 @@
         <v>3</v>
       </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="9" t="s">
+      <c r="T19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9" t="s">
+      <c r="U19" s="7"/>
+      <c r="V19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="7"/>
       <c r="AD19" s="6">
         <v>1</v>
       </c>
@@ -1787,10 +1818,10 @@
       <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="8"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -1809,11 +1840,11 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="6" t="s">
         <v>22</v>
       </c>
@@ -1844,11 +1875,11 @@
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1879,11 +1910,11 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
         <v>49</v>
       </c>
@@ -1900,11 +1931,11 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="6" t="s">
         <v>51</v>
       </c>
@@ -1923,6 +1954,9 @@
       <c r="H28" t="s">
         <v>40</v>
       </c>
+      <c r="W28" t="s">
+        <v>65</v>
+      </c>
       <c r="AC28" t="s">
         <v>56</v>
       </c>
@@ -1935,6 +1969,15 @@
         <v>45</v>
       </c>
       <c r="D29" s="6"/>
+      <c r="V29" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>43</v>
+      </c>
       <c r="AB29" s="6" t="s">
         <v>63</v>
       </c>
@@ -1954,6 +1997,15 @@
       <c r="AJ29" s="6"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>66</v>
+      </c>
       <c r="AB30" s="6">
         <v>1</v>
       </c>
@@ -1967,6 +2019,9 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
+      <c r="V31">
+        <v>2</v>
+      </c>
       <c r="AB31" s="6">
         <v>2</v>
       </c>
@@ -2002,6 +2057,9 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
+      <c r="Y34" t="s">
+        <v>71</v>
+      </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
@@ -2014,6 +2072,15 @@
       <c r="Q35" t="s">
         <v>24</v>
       </c>
+      <c r="X35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>68</v>
+      </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
@@ -2044,6 +2111,9 @@
       <c r="T36" t="s">
         <v>13</v>
       </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -2139,34 +2209,85 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
@@ -2187,89 +2308,56 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AD21:AE21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>